--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +34,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +85,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -96,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,39 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -164,35 +139,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -255,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -498,298 +453,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43162</v>
+        <v>43253</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1900</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>2050</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>730</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="3">
+        <v>830</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9">
+        <v>43713</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>2050</v>
+      <c r="C4" s="10">
+        <v>2250</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>150</v>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>200</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>643.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>898</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>1043.8</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1043.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>830</v>
+      <c r="C5" s="10">
+        <v>890</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6">
-        <v>2.17</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>43713</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9">
+        <v>43809</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17">
-        <v>2250</v>
+      <c r="C6" s="10">
+        <v>2450</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="6">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>898</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>970.9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>969.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17">
-        <v>890</v>
+      <c r="C7" s="10">
+        <v>920</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E7" s="16">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>43809</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2450</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
-        <v>920</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G4:G7)</f>
+        <v>2014.6999999999998</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H4:H7)</f>
+        <v>2013.6999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8">
+        <f>SUM(H8,-G8)</f>
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -799,12 +677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,12 +691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -453,7 +455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -463,7 +465,7 @@
       <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
@@ -478,7 +480,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -504,7 +506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43253</v>
       </c>
@@ -520,7 +522,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -534,7 +536,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43713</v>
       </c>
@@ -563,7 +565,7 @@
         <v>1043.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
@@ -585,7 +587,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43809</v>
       </c>
@@ -614,7 +616,7 @@
         <v>969.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
@@ -636,7 +638,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -654,7 +656,7 @@
         <v>2013.6999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -677,12 +679,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,12 +693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,35 +639,86 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="9">
+        <v>44050</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3100</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>650</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>3061.5</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>3571.5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3571.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1120</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G10" s="8">
         <f>SUM(G4:G7)</f>
         <v>2014.6999999999998</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H10" s="8">
         <f>SUM(H4:H7)</f>
         <v>2013.6999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="2"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
         <v>-1</v>
       </c>
     </row>

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,35 +690,86 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="9">
+        <v>44148</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3800</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>700</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>3297</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>4536.3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4536.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1606</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>486</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="5"/>
+        <v>1239.3</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G12" s="8">
         <f>SUM(G4:G7)</f>
         <v>2014.6999999999998</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H12" s="8">
         <f>SUM(H4:H7)</f>
         <v>2013.6999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
         <v>-1</v>
       </c>
     </row>

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -455,17 +453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
@@ -480,7 +478,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -506,7 +504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
         <v>43253</v>
       </c>
@@ -522,7 +520,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -536,7 +534,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="9">
         <v>43713</v>
       </c>
@@ -565,7 +563,7 @@
         <v>1043.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
@@ -587,7 +585,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>43809</v>
       </c>
@@ -616,7 +614,7 @@
         <v>969.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
@@ -638,7 +636,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="9">
         <v>44050</v>
       </c>
@@ -667,7 +665,7 @@
         <v>3571.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -689,7 +687,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="9">
         <v>44148</v>
       </c>
@@ -718,7 +716,7 @@
         <v>4536.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
@@ -740,36 +738,87 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
+        <v>44181</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4511</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>711</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>3348.81</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>4236.21</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4236.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1954</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="7"/>
+        <v>887.4</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="8">
         <f>SUM(G4:G7)</f>
         <v>2014.6999999999998</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H14" s="8">
         <f>SUM(H4:H7)</f>
         <v>2013.6999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8">
+        <f>SUM(H14,-G14)</f>
         <v>-1</v>
       </c>
     </row>
@@ -781,12 +830,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,12 +844,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -453,17 +455,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
@@ -478,7 +480,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -504,7 +506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43253</v>
       </c>
@@ -520,7 +522,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -534,7 +536,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43713</v>
       </c>
@@ -563,7 +565,7 @@
         <v>1043.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
@@ -585,7 +587,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43809</v>
       </c>
@@ -614,7 +616,7 @@
         <v>969.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
@@ -636,7 +638,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44050</v>
       </c>
@@ -665,7 +667,7 @@
         <v>3571.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -687,7 +689,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44148</v>
       </c>
@@ -716,7 +718,7 @@
         <v>4536.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
@@ -738,7 +740,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44181</v>
       </c>
@@ -767,7 +769,7 @@
         <v>4236.21</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>1</v>
@@ -789,36 +791,87 @@
       <c r="G13" s="2"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44225</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5417</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
+        <v>906</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>4267.26</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>5424.96</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5424.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2408</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="9"/>
+        <v>1157.6999999999998</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="8">
-        <f>SUM(G4:G7)</f>
-        <v>2014.6999999999998</v>
-      </c>
-      <c r="H14" s="8">
-        <f>SUM(H4:H7)</f>
-        <v>2013.6999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="8">
+        <f>SUM(G4:G15)</f>
+        <v>19783.669999999998</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H4:H15)</f>
+        <v>19782.669999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="8">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="2"/>
+      <c r="H17" s="8">
+        <f>SUM(H16,-G16)</f>
         <v>-1</v>
       </c>
     </row>
@@ -830,12 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,12 +897,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -152,6 +164,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,379 +535,122 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>44272</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>2050</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>4710</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2,F3)</f>
+        <v>7005</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7005</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>830</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="10">
+        <v>900</v>
+      </c>
+      <c r="D3" s="3">
+        <v>900</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>2295</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43713</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="13">
+        <v>44219</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
-        <v>2250</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
-        <v>200</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
-        <v>898</v>
-      </c>
-      <c r="G4" s="8">
-        <f>SUM(F4,F5)</f>
-        <v>1043.8</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1043.8</v>
-      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
-        <v>890</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43809</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2450</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>898</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="8">
-        <f>SUM(F6,F7)</f>
-        <v>970.9</v>
+        <f>SUM(G2:G5)</f>
+        <v>7005</v>
       </c>
       <c r="H6" s="8">
-        <v>969.9</v>
+        <f>SUM(H2:H5)</f>
+        <v>7005</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>920</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>72.900000000000006</v>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>44050</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="H7" s="8">
+        <f>SUM(H6,-G6)</f>
         <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>3100</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
-        <v>650</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>3061.5</v>
-      </c>
-      <c r="G8" s="8">
-        <f>SUM(F8,F9)</f>
-        <v>3571.5</v>
-      </c>
-      <c r="H8" s="8">
-        <v>3571.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1120</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="3"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>44148</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3800</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
-        <v>700</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>3297</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM(F10,F11)</f>
-        <v>4536.3</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4536.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1606</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>486</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="5"/>
-        <v>1239.3</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>44181</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4511</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
-        <v>711</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>3348.81</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(F12,F13)</f>
-        <v>4236.21</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4236.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1954</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>348</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="7"/>
-        <v>887.4</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>44225</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>5417</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
-        <v>906</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>4267.26</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(F14,F15)</f>
-        <v>5424.96</v>
-      </c>
-      <c r="H14" s="8">
-        <v>5424.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2408</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>454</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="9"/>
-        <v>1157.6999999999998</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8">
-        <f>SUM(G4:G15)</f>
-        <v>19783.669999999998</v>
-      </c>
-      <c r="H16" s="8">
-        <f>SUM(H4:H15)</f>
-        <v>19782.669999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="8">
-        <f>SUM(H16,-G16)</f>
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -138,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,9 +175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -491,7 +488,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,7 +549,7 @@
         <v>4.71</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
         <v>4710</v>
       </c>
       <c r="G2" s="8">
@@ -586,19 +583,32 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44219</v>
+        <v>44372</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="11"/>
+        <v>2000</v>
+      </c>
+      <c r="D4" s="15">
+        <f>SUM(C4,-C2)</f>
+        <v>1000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>4710</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>6112.5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6112.5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -606,12 +616,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+        <v>1450</v>
+      </c>
+      <c r="D5" s="15">
+        <f>SUM(C5,-C3)</f>
+        <v>550</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>1402.5</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,11 +643,11 @@
       </c>
       <c r="G6" s="8">
         <f>SUM(G2:G5)</f>
-        <v>7005</v>
+        <v>13117.5</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(H2:H5)</f>
-        <v>7005</v>
+        <v>13117.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/sputnik/personal/ee/143ee.xlsx
+++ b/sputnik/personal/ee/143ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,18 +91,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -138,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -164,20 +158,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -582,16 +573,16 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>44372</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>2000</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>SUM(C4,-C2)</f>
         <v>1000</v>
       </c>
@@ -611,14 +602,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1450</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>SUM(C5,-C3)</f>
         <v>550</v>
       </c>
@@ -629,39 +620,90 @@
         <f t="shared" si="0"/>
         <v>1402.5</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="12">
+        <v>44494</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2670</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(C6,-C4)</f>
+        <v>670</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
+        <v>3323.2</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>3979.7999999999997</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3979.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1695</v>
+      </c>
+      <c r="D7" s="14">
+        <f>SUM(C7,-C5)</f>
+        <v>245</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>656.6</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G8" s="8">
         <f>SUM(G2:G5)</f>
         <v>13117.5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H8" s="8">
         <f>SUM(H2:H5)</f>
         <v>13117.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="8">
-        <f>SUM(H6,-G6)</f>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
       </c>
     </row>
